--- a/data/trans_orig/iP30B8_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30B8_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A594EAD-25FB-4447-B9D2-E95294E45FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{866D8DC1-EE50-4198-B30F-DFFCF80DE954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{46EB4A64-A67B-4DB4-8D6D-55743EE277E3}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{393EB82C-15FA-4E00-8C9C-EB66CD7030E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -131,12 +131,66 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
-    <t>87,12%</t>
-  </si>
-  <si>
     <t>81,76%</t>
   </si>
   <si>
@@ -161,9 +215,6 @@
     <t>88,78%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
     <t>9,38%</t>
   </si>
   <si>
@@ -186,57 +237,6 @@
   </si>
   <si>
     <t>16,77%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
   </si>
   <si>
     <t>87,79%</t>
@@ -682,7 +682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E26597E-E01F-4AC4-9E12-14DD06CD31B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3E0403-6521-4282-B8FF-06E09146C480}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -955,10 +955,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>421</v>
+        <v>239</v>
       </c>
       <c r="D7" s="7">
-        <v>350485</v>
+        <v>181878</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -970,10 +970,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>399</v>
+        <v>244</v>
       </c>
       <c r="I7" s="7">
-        <v>299583</v>
+        <v>172738</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -985,10 +985,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>820</v>
+        <v>483</v>
       </c>
       <c r="N7" s="7">
-        <v>650067</v>
+        <v>354616</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1006,10 +1006,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>51796</v>
+        <v>22596</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1021,10 +1021,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>50031</v>
+        <v>25529</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1036,10 +1036,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="N8" s="7">
-        <v>101827</v>
+        <v>48125</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1057,10 +1057,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>478</v>
+        <v>270</v>
       </c>
       <c r="D9" s="7">
-        <v>402281</v>
+        <v>204474</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1072,10 +1072,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>349614</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1087,10 +1087,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>939</v>
+        <v>551</v>
       </c>
       <c r="N9" s="7">
-        <v>751894</v>
+        <v>402741</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1110,28 +1110,28 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>239</v>
+        <v>421</v>
       </c>
       <c r="D10" s="7">
-        <v>181878</v>
+        <v>350485</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>399</v>
+      </c>
+      <c r="I10" s="7">
+        <v>299583</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="H10" s="7">
-        <v>244</v>
-      </c>
-      <c r="I10" s="7">
-        <v>172738</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>54</v>
@@ -1140,10 +1140,10 @@
         <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>483</v>
+        <v>820</v>
       </c>
       <c r="N10" s="7">
-        <v>354616</v>
+        <v>650067</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1161,28 +1161,28 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7">
-        <v>22596</v>
+        <v>51796</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>62</v>
+      </c>
+      <c r="I11" s="7">
+        <v>50031</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H11" s="7">
-        <v>37</v>
-      </c>
-      <c r="I11" s="7">
-        <v>25529</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>62</v>
@@ -1191,10 +1191,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="N11" s="7">
-        <v>48125</v>
+        <v>101827</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1212,10 +1212,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>270</v>
+        <v>478</v>
       </c>
       <c r="D12" s="7">
-        <v>204474</v>
+        <v>402281</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1227,10 +1227,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>349614</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1242,10 +1242,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="N12" s="7">
-        <v>402741</v>
+        <v>751894</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP30B8_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30B8_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{866D8DC1-EE50-4198-B30F-DFFCF80DE954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{344117D3-7B1E-4359-965A-7DA6357A225A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{393EB82C-15FA-4E00-8C9C-EB66CD7030E7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{01C7D8CB-5510-4EC2-9EE6-327541E41490}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si toman golosinas o caramelos varias veces al día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -65,232 +65,298 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>89,38%</t>
   </si>
   <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>87,79%</t>
   </si>
   <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>86,87%</t>
   </si>
   <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -301,7 +367,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -397,39 +463,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -481,7 +547,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -592,13 +658,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -607,6 +666,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -671,19 +737,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3E0403-6521-4282-B8FF-06E09146C480}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A512EE-DAF5-485D-886E-EEE66042F3F5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -800,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>90390</v>
+        <v>3559</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -815,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>157</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>84170</v>
+        <v>1290</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -830,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>327</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>174560</v>
+        <v>4849</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -851,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D5" s="7">
-        <v>12189</v>
+        <v>39585</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -866,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I5" s="7">
-        <v>8557</v>
+        <v>45003</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -881,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="N5" s="7">
-        <v>20746</v>
+        <v>84587</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -902,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7">
-        <v>102579</v>
+        <v>43144</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -917,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>92727</v>
+        <v>46293</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -932,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>365</v>
+        <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>195306</v>
+        <v>89436</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -955,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>181878</v>
+        <v>23995</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -970,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="I7" s="7">
-        <v>172738</v>
+        <v>24362</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -985,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>483</v>
+        <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>354616</v>
+        <v>48357</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1006,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="D8" s="7">
-        <v>22596</v>
+        <v>150722</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1021,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="I8" s="7">
-        <v>25529</v>
+        <v>134403</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1036,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>68</v>
+        <v>458</v>
       </c>
       <c r="N8" s="7">
-        <v>48125</v>
+        <v>285125</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1057,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D9" s="7">
-        <v>204474</v>
+        <v>174717</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1072,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1087,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>402741</v>
+        <v>333482</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1110,49 +1196,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>421</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>350485</v>
+        <v>20778</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>399</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>299583</v>
+        <v>21274</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>820</v>
+        <v>56</v>
       </c>
       <c r="N10" s="7">
-        <v>650067</v>
+        <v>42052</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1161,49 +1247,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="D11" s="7">
-        <v>51796</v>
+        <v>181700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="I11" s="7">
-        <v>50031</v>
+        <v>154839</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>119</v>
+        <v>420</v>
       </c>
       <c r="N11" s="7">
-        <v>101827</v>
+        <v>336539</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1212,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>478</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402281</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1227,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>349614</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1242,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>939</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>751894</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1259,55 +1345,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>830</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>622752</v>
+        <v>38250</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>800</v>
+        <v>46</v>
       </c>
       <c r="I13" s="7">
-        <v>556493</v>
+        <v>37191</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1630</v>
+        <v>86</v>
       </c>
       <c r="N13" s="7">
-        <v>1179244</v>
+        <v>75441</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1316,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>110</v>
+        <v>301</v>
       </c>
       <c r="D14" s="7">
-        <v>86582</v>
+        <v>250744</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="I14" s="7">
-        <v>84116</v>
+        <v>222247</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>225</v>
+        <v>596</v>
       </c>
       <c r="N14" s="7">
-        <v>170698</v>
+        <v>472992</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,55 +1453,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>288994</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>341</v>
+      </c>
+      <c r="I15" s="7">
+        <v>259438</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>682</v>
+      </c>
+      <c r="N15" s="7">
+        <v>548433</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>110</v>
+      </c>
+      <c r="D16" s="7">
+        <v>86582</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>115</v>
+      </c>
+      <c r="I16" s="7">
+        <v>84116</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>225</v>
+      </c>
+      <c r="N16" s="7">
+        <v>170698</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>830</v>
+      </c>
+      <c r="D17" s="7">
+        <v>622751</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>800</v>
+      </c>
+      <c r="I17" s="7">
+        <v>556493</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1630</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1179244</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>940</v>
       </c>
-      <c r="D15" s="7">
-        <v>709334</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="D18" s="7">
+        <v>709333</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>915</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>640609</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1855</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1349942</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/iP30B8_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30B8_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{344117D3-7B1E-4359-965A-7DA6357A225A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{954F1131-8948-4F48-8391-8A5CA19AC8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{01C7D8CB-5510-4EC2-9EE6-327541E41490}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4DEA528F-915A-40A7-A676-D0B09BF74424}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si toman golosinas o caramelos varias veces al día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>8,25%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
   </si>
   <si>
     <t>2,79%</t>
@@ -86,16 +86,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,48%</t>
+    <t>9,4%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,16 +104,16 @@
     <t>91,75%</t>
   </si>
   <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>91,52%</t>
+    <t>90,6%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -122,10 +122,10 @@
     <t>94,58%</t>
   </si>
   <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>13,73%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>15,34%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>84,66%</t>
   </si>
   <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -194,55 +194,55 @@
     <t>10,26%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>89,74%</t>
   </si>
   <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -251,109 +251,103 @@
     <t>13,24%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
   </si>
   <si>
     <t>86,76%</t>
   </si>
   <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>85,66%</t>
   </si>
   <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>86,24%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>13,13%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>14,49%</t>
   </si>
   <si>
     <t>87,79%</t>
   </si>
   <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>86,87%</t>
   </si>
   <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>85,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A512EE-DAF5-485D-886E-EEE66042F3F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245F858B-2684-4351-92D8-DF6EDF0DCA0B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1545,10 +1539,10 @@
         <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,13 +1557,13 @@
         <v>622751</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>800</v>
@@ -1578,13 +1572,13 @@
         <v>556493</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1630</v>
@@ -1593,13 +1587,13 @@
         <v>1179244</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,7 +1649,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP30B8_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30B8_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{954F1131-8948-4F48-8391-8A5CA19AC8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A189A4E3-8EFC-46BE-84DB-EAB0F0CECBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4DEA528F-915A-40A7-A676-D0B09BF74424}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5505F204-536B-4F0C-B3D9-805BC2E96A36}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si toman golosinas o caramelos varias veces al día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
     <t>2,79%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>90,6%</t>
+    <t>89,93%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,220 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
   <si>
     <t>15,34%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>84,66%</t>
   </si>
   <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>89,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245F858B-2684-4351-92D8-DF6EDF0DCA0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE94A4C-AA85-46E1-821A-DAA64EE30DE4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -880,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>3559</v>
+        <v>1295</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -895,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>1290</v>
+        <v>3913</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -913,7 +919,7 @@
         <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>4849</v>
+        <v>5208</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -931,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7">
-        <v>39585</v>
+        <v>45200</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -946,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I5" s="7">
-        <v>45003</v>
+        <v>41372</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -964,7 +970,7 @@
         <v>156</v>
       </c>
       <c r="N5" s="7">
-        <v>84587</v>
+        <v>86571</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -982,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1015,7 +1021,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1035,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>23995</v>
+        <v>24506</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1050,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>24362</v>
+        <v>24662</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1068,7 +1074,7 @@
         <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>48357</v>
+        <v>49169</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1086,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D8" s="7">
-        <v>150722</v>
+        <v>134793</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1101,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="I8" s="7">
-        <v>134403</v>
+        <v>157297</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1119,7 +1125,7 @@
         <v>458</v>
       </c>
       <c r="N8" s="7">
-        <v>285125</v>
+        <v>292090</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1137,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1170,7 +1176,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1193,7 +1199,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>20778</v>
+        <v>20746</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1208,7 +1214,7 @@
         <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>21274</v>
+        <v>21461</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1223,7 +1229,7 @@
         <v>56</v>
       </c>
       <c r="N10" s="7">
-        <v>42052</v>
+        <v>42207</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1241,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D11" s="7">
-        <v>181700</v>
+        <v>152326</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1256,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="I11" s="7">
-        <v>154839</v>
+        <v>191029</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1274,7 +1280,7 @@
         <v>420</v>
       </c>
       <c r="N11" s="7">
-        <v>336539</v>
+        <v>343356</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1292,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1325,7 +1331,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1345,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7">
-        <v>38250</v>
+        <v>39670</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1360,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>37191</v>
+        <v>43725</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1378,7 +1384,7 @@
         <v>86</v>
       </c>
       <c r="N13" s="7">
-        <v>75441</v>
+        <v>83395</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1396,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D14" s="7">
-        <v>250744</v>
+        <v>234597</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1411,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="I14" s="7">
-        <v>222247</v>
+        <v>261274</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1429,7 +1435,7 @@
         <v>596</v>
       </c>
       <c r="N14" s="7">
-        <v>472992</v>
+        <v>495871</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1450,7 +1456,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1465,7 +1471,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1480,7 +1486,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1500,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D16" s="7">
-        <v>86582</v>
+        <v>86218</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -1515,10 +1521,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I16" s="7">
-        <v>84116</v>
+        <v>93761</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -1533,16 +1539,16 @@
         <v>225</v>
       </c>
       <c r="N16" s="7">
-        <v>170698</v>
+        <v>179979</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>800</v>
+      </c>
+      <c r="D17" s="7">
+        <v>566916</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>830</v>
       </c>
-      <c r="D17" s="7">
-        <v>622751</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="7">
-        <v>800</v>
-      </c>
       <c r="I17" s="7">
-        <v>556493</v>
+        <v>650972</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1630</v>
       </c>
       <c r="N17" s="7">
-        <v>1179244</v>
+        <v>1217888</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1635,7 +1641,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1649,7 +1655,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
